--- a/pms-server/uploadfiles/template/wire_group.xlsx
+++ b/pms-server/uploadfiles/template/wire_group.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>线组名</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t>截面</t>
+  </si>
+  <si>
+    <t>操作</t>
   </si>
 </sst>
 </file>
@@ -119,24 +125,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E13" activeCellId="0" pane="topLeft" sqref="E13"/>
+      <selection activeCell="E3" activeCellId="0" pane="topLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.42352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="1" width="8.64313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.9764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.1372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.1764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.7254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.5411764705882"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.0588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.3960784313725"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="8.64313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.47450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.98039215686275"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="1" width="8.69411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.2078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.243137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.8078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.6313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="13.1254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="16.4901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.69411764705882"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -149,6 +155,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
